--- a/Providers/example.xlsx
+++ b/Providers/example.xlsx
@@ -20,15 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">trt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dldlldl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eppepe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">product_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tapizim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tapuchim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID2</t>
   </si>
 </sst>
 </file>
@@ -125,10 +140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -137,36 +152,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>0</v>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
